--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/03.XNBH/XNBH_NgocHoan_030124.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/03.XNBH/XNBH_NgocHoan_030124.xlsx
@@ -68,9 +68,6 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoa</t>
-  </si>
-  <si>
     <t>TP.KTTH</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t xml:space="preserve">                                        </t>
   </si>
   <si>
-    <t>Kế Toán Kho</t>
-  </si>
-  <si>
     <t>Công Ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -125,12 +119,6 @@
     <t>Không xác định</t>
   </si>
   <si>
-    <t>Không quẹt được thẻ, lỗi nguồn</t>
-  </si>
-  <si>
-    <t>Đổi bảo hành thiết bị khác</t>
-  </si>
-  <si>
     <t>Phần cứng</t>
   </si>
   <si>
@@ -141,6 +129,20 @@
   </si>
   <si>
     <t xml:space="preserve">1 dây kết nối </t>
+  </si>
+  <si>
+    <t>Đổi bảo hành 
+thiết bị khác</t>
+  </si>
+  <si>
+    <t>Không quẹt được thẻ, 
+lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Kết Toán Kho</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
   </si>
 </sst>
 </file>
@@ -150,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,11 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -232,20 +229,7 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -272,6 +256,18 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -438,7 +434,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,35 +454,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,117 +611,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,13 +646,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>260025</xdr:colOff>
+      <xdr:colOff>194083</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>608135</xdr:colOff>
+      <xdr:colOff>740020</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>40775</xdr:rowOff>
     </xdr:to>
@@ -684,7 +677,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="260025" y="190499"/>
+          <a:off x="194083" y="190499"/>
           <a:ext cx="1710918" cy="524353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -990,361 +983,361 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="6" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="65" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="M8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="L9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="H12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39" t="s">
+      <c r="H21" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="49"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="7"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="48"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1372,8 +1365,8 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:I10"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
